--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_2.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_2.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_9</t>
+          <t>model_1_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9418650144120377</v>
+        <v>0.9298536433300676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7596111733640588</v>
+        <v>0.7668642604642122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7569908740536173</v>
+        <v>0.7203666380086499</v>
       </c>
       <c r="E2" t="n">
-        <v>0.952074903103255</v>
+        <v>0.9283421428922038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2419884295298779</v>
+        <v>0.2919860823241431</v>
       </c>
       <c r="G2" t="n">
-        <v>1.607481190603306</v>
+        <v>1.558979763767186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8692295530315003</v>
+        <v>1.000232321769129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2226215140180437</v>
+        <v>0.4193664880244108</v>
       </c>
       <c r="J2" t="n">
-        <v>1.007424193145446</v>
+        <v>1.489051890533892</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4919231947467795</v>
+        <v>0.5403573653834498</v>
       </c>
       <c r="L2" t="n">
-        <v>4.720639077629585</v>
+        <v>0.9044815568749857</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4996704933212545</v>
+        <v>0.5488674537290446</v>
       </c>
       <c r="N2" t="n">
-        <v>132.837730731657</v>
+        <v>36.46209828224654</v>
       </c>
       <c r="O2" t="n">
-        <v>274.1729032748734</v>
+        <v>73.42668187047235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_8</t>
+          <t>model_1_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9407194513171074</v>
+        <v>0.9298320629009599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7586962357264668</v>
+        <v>0.7667744108416819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7562679195721111</v>
+        <v>0.7199027129650526</v>
       </c>
       <c r="E3" t="n">
-        <v>0.951281637584841</v>
+        <v>0.9278375721671285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2467568664954317</v>
+        <v>0.2920759114364329</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613599382798784</v>
+        <v>1.559580588606765</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8718155192925384</v>
+        <v>1.001891754750157</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2263063885861253</v>
+        <v>0.4223194098877656</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0183976982209</v>
+        <v>1.492539641324944</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4967462798002937</v>
+        <v>0.5404404790875984</v>
       </c>
       <c r="L3" t="n">
-        <v>4.793955115705124</v>
+        <v>0.9044521707587538</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5045695371430453</v>
+        <v>0.5489518763909501</v>
       </c>
       <c r="N3" t="n">
-        <v>132.7987035466267</v>
+        <v>36.46148307965532</v>
       </c>
       <c r="O3" t="n">
-        <v>274.1338760898431</v>
+        <v>73.42606666788114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_7</t>
+          <t>model_1_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9372823727638426</v>
+        <v>0.9298068417347174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7563843255463474</v>
+        <v>0.766681930045038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7535848245967338</v>
+        <v>0.7194269442633215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9489415277037204</v>
+        <v>0.9273257535920252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2610637977325077</v>
+        <v>0.2921808952142423</v>
       </c>
       <c r="G4" t="n">
-        <v>1.62905913681861</v>
+        <v>1.560199008119757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8814127944446775</v>
+        <v>1.003593551809594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2371766598727132</v>
+        <v>0.4253147486686041</v>
       </c>
       <c r="J4" t="n">
-        <v>1.050356273795539</v>
+        <v>1.496031261806518</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5109440260268318</v>
+        <v>0.5405375983354371</v>
       </c>
       <c r="L4" t="n">
-        <v>5.013928143114072</v>
+        <v>0.9044178270430194</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5189908836801119</v>
+        <v>0.5490505251698586</v>
       </c>
       <c r="N4" t="n">
-        <v>132.6859809315445</v>
+        <v>36.46076432873795</v>
       </c>
       <c r="O4" t="n">
-        <v>274.0211534747609</v>
+        <v>73.42534791696377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_6</t>
+          <t>model_1_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.935962319480528</v>
+        <v>0.929778002610626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7552399906081436</v>
+        <v>0.7665868449823026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7526599999850478</v>
+        <v>0.718939860844739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9479913318154903</v>
+        <v>0.9268067115482828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2665585547655462</v>
+        <v>0.2923009388381862</v>
       </c>
       <c r="G5" t="n">
-        <v>1.636711309819557</v>
+        <v>1.560834842372096</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8847208384562665</v>
+        <v>1.005335820955144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2415905069163043</v>
+        <v>0.4283523616786305</v>
       </c>
       <c r="J5" t="n">
-        <v>1.062766431708055</v>
+        <v>1.49952759576486</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5162930899843095</v>
+        <v>0.5406486278889332</v>
       </c>
       <c r="L5" t="n">
-        <v>5.098411553246208</v>
+        <v>0.9043785567463845</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5244241900478177</v>
+        <v>0.5491633033278336</v>
       </c>
       <c r="N5" t="n">
-        <v>132.6443226836326</v>
+        <v>36.45994278994145</v>
       </c>
       <c r="O5" t="n">
-        <v>273.9794952268489</v>
+        <v>73.42452637816727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_5</t>
+          <t>model_1_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9323345375169291</v>
+        <v>0.9297456095204316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7526547857566552</v>
+        <v>0.7664891982467723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7489095373380924</v>
+        <v>0.7184414030655336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9454212718464164</v>
+        <v>0.9262804987371089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2816592940393149</v>
+        <v>0.2924357759409134</v>
       </c>
       <c r="G6" t="n">
-        <v>1.653998586565234</v>
+        <v>1.561487806542209</v>
       </c>
       <c r="H6" t="n">
-        <v>0.898136025880107</v>
+        <v>1.00711877552912</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2535289416505123</v>
+        <v>0.4314319404922063</v>
       </c>
       <c r="J6" t="n">
-        <v>1.095579724065996</v>
+        <v>1.503029511322938</v>
       </c>
       <c r="K6" t="n">
-        <v>0.530715831721002</v>
+        <v>0.5407733128963682</v>
       </c>
       <c r="L6" t="n">
-        <v>5.330589598916539</v>
+        <v>0.9043344470065452</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5390740755494108</v>
+        <v>0.5492899519994964</v>
       </c>
       <c r="N6" t="n">
-        <v>132.534114231288</v>
+        <v>36.4590204117038</v>
       </c>
       <c r="O6" t="n">
-        <v>273.8692867745044</v>
+        <v>73.42360399992961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_4</t>
+          <t>model_1_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9309897135176755</v>
+        <v>0.9297097274906034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.751629465241376</v>
+        <v>0.7663891056679948</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7478272535478223</v>
+        <v>0.7179318968049746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9444001310050022</v>
+        <v>0.9257472346216058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2872571598387496</v>
+        <v>0.2925851358480097</v>
       </c>
       <c r="G7" t="n">
-        <v>1.660854909572073</v>
+        <v>1.562157126077378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9020072922434832</v>
+        <v>1.008941249880269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2582723419743777</v>
+        <v>0.4345527859700665</v>
       </c>
       <c r="J7" t="n">
-        <v>1.106367152066511</v>
+        <v>1.506534157594611</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5359637672816602</v>
+        <v>0.5409113937125097</v>
       </c>
       <c r="L7" t="n">
-        <v>5.416658334868771</v>
+        <v>0.9042855863701834</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5444046608491384</v>
+        <v>0.5494302074504619</v>
       </c>
       <c r="N7" t="n">
-        <v>132.4947548742053</v>
+        <v>36.45799918386506</v>
       </c>
       <c r="O7" t="n">
-        <v>273.8299274174217</v>
+        <v>73.42258277209088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_3</t>
+          <t>model_1_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9205087952306885</v>
+        <v>0.9296704314476522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7437495575370359</v>
+        <v>0.7662865837009403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7387232166188599</v>
+        <v>0.7174115685918885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9356659069639155</v>
+        <v>0.9252070299053123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3308842620156547</v>
+        <v>0.2927487066758743</v>
       </c>
       <c r="G8" t="n">
-        <v>1.713547888674634</v>
+        <v>1.562842690943142</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9345719044559905</v>
+        <v>1.010802433728114</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2988445328661102</v>
+        <v>0.4377142502369286</v>
       </c>
       <c r="J8" t="n">
-        <v>1.201866658612882</v>
+        <v>1.510041958115012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5752254010521917</v>
+        <v>0.5410625718675006</v>
       </c>
       <c r="L8" t="n">
-        <v>6.087437105235935</v>
+        <v>0.904232076864888</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5842846261043207</v>
+        <v>0.5495837665102712</v>
       </c>
       <c r="N8" t="n">
-        <v>132.2119732526701</v>
+        <v>36.45688138871815</v>
       </c>
       <c r="O8" t="n">
-        <v>273.5471457958865</v>
+        <v>73.42146497694397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_2</t>
+          <t>model_1_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9189188177981735</v>
+        <v>0.9296277308595742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7424925382868114</v>
+        <v>0.7661817824569439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7374179543284631</v>
+        <v>0.7168808654751742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9344170962897044</v>
+        <v>0.9246599663124474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.33750258552586</v>
+        <v>0.2929264490137192</v>
       </c>
       <c r="G9" t="n">
-        <v>1.721953582188927</v>
+        <v>1.563543497344311</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9392407519852837</v>
+        <v>1.012700728004667</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3046455044032939</v>
+        <v>0.4409158550144851</v>
       </c>
       <c r="J9" t="n">
-        <v>1.21256229300994</v>
+        <v>1.513551012140367</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5809497271932056</v>
+        <v>0.541226799977347</v>
       </c>
       <c r="L9" t="n">
-        <v>6.189195660916894</v>
+        <v>0.90417393138325</v>
       </c>
       <c r="M9" t="n">
-        <v>0.590099104659829</v>
+        <v>0.5497505810486799</v>
       </c>
       <c r="N9" t="n">
-        <v>132.1723642157631</v>
+        <v>36.45566745746923</v>
       </c>
       <c r="O9" t="n">
-        <v>273.5075367589795</v>
+        <v>73.42025104569505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_1</t>
+          <t>model_1_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9172171601293363</v>
+        <v>0.9295816870974069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7412310479762474</v>
+        <v>0.7660746820114144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7361064842025862</v>
+        <v>0.716339644555398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9329639128220496</v>
+        <v>0.9241060910099633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3445857810012652</v>
+        <v>0.2931181074029635</v>
       </c>
       <c r="G10" t="n">
-        <v>1.730389173704296</v>
+        <v>1.564259678516719</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9439318045821384</v>
+        <v>1.014636643852914</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3113958278176062</v>
+        <v>0.4441573242654673</v>
       </c>
       <c r="J10" t="n">
-        <v>1.226499460891465</v>
+        <v>1.5170630913797</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5870142936941699</v>
+        <v>0.5414038302440827</v>
       </c>
       <c r="L10" t="n">
-        <v>6.298101751722477</v>
+        <v>0.9041112334943413</v>
       </c>
       <c r="M10" t="n">
-        <v>0.596259182020841</v>
+        <v>0.5499303993651513</v>
       </c>
       <c r="N10" t="n">
-        <v>132.1308244361382</v>
+        <v>36.45435930849675</v>
       </c>
       <c r="O10" t="n">
-        <v>273.4659969793546</v>
+        <v>73.41894289672257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_0</t>
+          <t>model_1_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9156049609044082</v>
+        <v>0.9295324016716595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7399476050651388</v>
+        <v>0.7659654504463584</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7349695360232431</v>
+        <v>0.7157886023315041</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9317320965880161</v>
+        <v>0.9235455469537908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3512966033156412</v>
+        <v>0.2933232593034016</v>
       </c>
       <c r="G11" t="n">
-        <v>1.738971562360592</v>
+        <v>1.564990110495214</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9479986022956052</v>
+        <v>1.016607689936519</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3171178568330796</v>
+        <v>0.4474378213624771</v>
       </c>
       <c r="J11" t="n">
-        <v>1.23709699273758</v>
+        <v>1.520575431810923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5927027950968691</v>
+        <v>0.5415932600239793</v>
       </c>
       <c r="L11" t="n">
-        <v>6.401282502117873</v>
+        <v>0.9040441214252385</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6020372716342176</v>
+        <v>0.5501228124747209</v>
       </c>
       <c r="N11" t="n">
-        <v>132.092248777313</v>
+        <v>36.45296000810319</v>
       </c>
       <c r="O11" t="n">
-        <v>273.4274213205294</v>
+        <v>73.41754359632901</v>
       </c>
     </row>
   </sheetData>
